--- a/assets/downloadables/DCF_Form_4.xlsx
+++ b/assets/downloadables/DCF_Form_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer Veriton M4660G\Downloads\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="form4" sheetId="1" r:id="rId1"/>
+    <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
   <si>
     <t>FORM 4 - CAPACITY BUILDING FOR BENEFICIARIES</t>
   </si>
@@ -224,12 +225,330 @@
   <si>
     <t>Female Total</t>
   </si>
+  <si>
+    <t>Activity Title</t>
+  </si>
+  <si>
+    <t>Provide full activity title based on approved activity proposal.</t>
+  </si>
+  <si>
+    <t>Input field</t>
+  </si>
+  <si>
+    <t>Guideline</t>
+  </si>
+  <si>
+    <t>Types of Training</t>
+  </si>
+  <si>
+    <t>Topic Of Training</t>
+  </si>
+  <si>
+    <t>Formulating strategies</t>
+  </si>
+  <si>
+    <t>Identifying business opportunities</t>
+  </si>
+  <si>
+    <t>Business networking</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>Democratic elections</t>
+  </si>
+  <si>
+    <t>Group decision-making</t>
+  </si>
+  <si>
+    <t>Formulating internal policies</t>
+  </si>
+  <si>
+    <t>Establishing organizational structure</t>
+  </si>
+  <si>
+    <t>FO-Organization Entrepreneurial Competency</t>
+  </si>
+  <si>
+    <t>FO-Governance</t>
+  </si>
+  <si>
+    <t>FO-Organizational Management</t>
+  </si>
+  <si>
+    <t>Identifying competitive advantage</t>
+  </si>
+  <si>
+    <t>Recording transactions</t>
+  </si>
+  <si>
+    <t>Complying with government regulations</t>
+  </si>
+  <si>
+    <t>FO-Operations</t>
+  </si>
+  <si>
+    <t>Meeting quality specifications</t>
+  </si>
+  <si>
+    <t>Meeting volume requirements</t>
+  </si>
+  <si>
+    <t>Meeting delivery commitments</t>
+  </si>
+  <si>
+    <t>Consolidating products</t>
+  </si>
+  <si>
+    <t>Forecasting</t>
+  </si>
+  <si>
+    <t>Business planning</t>
+  </si>
+  <si>
+    <t>Making a Business Plan</t>
+  </si>
+  <si>
+    <t>FO-Technology and Product Development (Business Development)</t>
+  </si>
+  <si>
+    <t>Strategy formulation</t>
+  </si>
+  <si>
+    <t>Product development</t>
+  </si>
+  <si>
+    <t>Quality control measures</t>
+  </si>
+  <si>
+    <t>FO-Institutional Marketing Management</t>
+  </si>
+  <si>
+    <t>Market development</t>
+  </si>
+  <si>
+    <t>Formulating value proposition</t>
+  </si>
+  <si>
+    <t>Identifying institutional buyers</t>
+  </si>
+  <si>
+    <t>Securing supply agreements</t>
+  </si>
+  <si>
+    <t>Digital marketing</t>
+  </si>
+  <si>
+    <t>FO-Human Resource Management</t>
+  </si>
+  <si>
+    <t>Staff hiring</t>
+  </si>
+  <si>
+    <t>Staff training</t>
+  </si>
+  <si>
+    <t>Providing technical assistance to members</t>
+  </si>
+  <si>
+    <t>Continuous education</t>
+  </si>
+  <si>
+    <t>Selecting members</t>
+  </si>
+  <si>
+    <t>Handling grievances</t>
+  </si>
+  <si>
+    <t>FO-Financial Management</t>
+  </si>
+  <si>
+    <t>Meeting working capital requirements</t>
+  </si>
+  <si>
+    <t>Knowledge of financial services</t>
+  </si>
+  <si>
+    <t>Availing financial services</t>
+  </si>
+  <si>
+    <t>Recording financial transactions</t>
+  </si>
+  <si>
+    <t>FO-Networking and Linkage-Building (External Relation; Business Membership Organization)</t>
+  </si>
+  <si>
+    <t>Working with stakeholders</t>
+  </si>
+  <si>
+    <t>Coordinating with institutions for assistance</t>
+  </si>
+  <si>
+    <t>Working with other organizations</t>
+  </si>
+  <si>
+    <t>Complying with commitments</t>
+  </si>
+  <si>
+    <t>MSME-Entrepreneurial Competency</t>
+  </si>
+  <si>
+    <t>Strategic planning</t>
+  </si>
+  <si>
+    <t>Commitment</t>
+  </si>
+  <si>
+    <t>Decision making</t>
+  </si>
+  <si>
+    <t>MSME-Operations</t>
+  </si>
+  <si>
+    <t>MSME-Management</t>
+  </si>
+  <si>
+    <t>MSME-Technology and Product Development</t>
+  </si>
+  <si>
+    <t>Transaction automation</t>
+  </si>
+  <si>
+    <t>MSME-Marketing Management</t>
+  </si>
+  <si>
+    <t>MSME-Human Resource Management</t>
+  </si>
+  <si>
+    <t>MSME-Financial Management</t>
+  </si>
+  <si>
+    <t>MSME-Networking and Linkage-Building (External Relation; Business Membership Organization)</t>
+  </si>
+  <si>
+    <t>Individual Farmer-Managing Natural Resources</t>
+  </si>
+  <si>
+    <t>Production skills</t>
+  </si>
+  <si>
+    <t>Soil management</t>
+  </si>
+  <si>
+    <t>Water management</t>
+  </si>
+  <si>
+    <t>Composting and use of fertilizers and chemicals</t>
+  </si>
+  <si>
+    <t>Mechanical skills</t>
+  </si>
+  <si>
+    <t>Individual Farmer-Managing Finances</t>
+  </si>
+  <si>
+    <t>Keeping financial records</t>
+  </si>
+  <si>
+    <t>Managing personal and business budgets</t>
+  </si>
+  <si>
+    <t>Effective use of debts and loans</t>
+  </si>
+  <si>
+    <t>Risk management skills</t>
+  </si>
+  <si>
+    <t>Individual Farmer-Marketing</t>
+  </si>
+  <si>
+    <t>Farming as a business</t>
+  </si>
+  <si>
+    <t>Business plan</t>
+  </si>
+  <si>
+    <t>Procurement and selling skills</t>
+  </si>
+  <si>
+    <t>Collective marketing</t>
+  </si>
+  <si>
+    <t>Individual Farmer-Innovation</t>
+  </si>
+  <si>
+    <t>Crop and product diversification</t>
+  </si>
+  <si>
+    <t>Technological advancements</t>
+  </si>
+  <si>
+    <t>Adaptability and problem-solving</t>
+  </si>
+  <si>
+    <t>Data collection and analysis</t>
+  </si>
+  <si>
+    <t>Individual Farmer-Teamwork</t>
+  </si>
+  <si>
+    <t>Leadership skills</t>
+  </si>
+  <si>
+    <t>Personnel management skills</t>
+  </si>
+  <si>
+    <t>Communication skills</t>
+  </si>
+  <si>
+    <t>Effective team player</t>
+  </si>
+  <si>
+    <t>FO-GESI</t>
+  </si>
+  <si>
+    <t>FO-Social Environment &amp; Climate</t>
+  </si>
+  <si>
+    <t>FO-Managing Natural Resources</t>
+  </si>
+  <si>
+    <t>MSME-GESI</t>
+  </si>
+  <si>
+    <t>MSME-Social Environment &amp; Climate</t>
+  </si>
+  <si>
+    <t>MSME-Managing Natural Resources</t>
+  </si>
+  <si>
+    <t>Individual Farmer-GESI</t>
+  </si>
+  <si>
+    <t>Individual Farmer-Social Environment &amp; Climate</t>
+  </si>
+  <si>
+    <t>"Type the topic of training"</t>
+  </si>
+  <si>
+    <t>Name of DIPs</t>
+  </si>
+  <si>
+    <t>DIP name format: Region&lt;space&gt;DIP Name (ex. R8 SC Global).</t>
+  </si>
+  <si>
+    <t>Rapid Actual Budget</t>
+  </si>
+  <si>
+    <t>Enter amount utilized for the conduct of activities without comma (ex. 500000).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +563,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +603,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -340,11 +703,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -387,6 +802,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AJ5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,4 +2000,770 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="70.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+    </row>
+    <row r="6" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+      <c r="B90" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="26"/>
+      <c r="B93" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="26"/>
+      <c r="B98" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="24"/>
+      <c r="B99" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="26"/>
+      <c r="B102" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/downloadables/DCF_Form_4.xlsx
+++ b/assets/downloadables/DCF_Form_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -578,7 +578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +630,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -785,21 +791,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -832,6 +823,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,7 +1129,7 @@
   <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,45 +1165,45 @@
       <c r="AK1" s="4"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="11" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1217,10 +1226,10 @@
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1233,43 +1242,43 @@
       <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12" t="s">
+      <c r="N3" s="39"/>
+      <c r="O3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="12" t="s">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="15" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="12" t="s">
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="14" t="s">
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="11"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="37"/>
     </row>
     <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1362,115 +1371,115 @@
       <c r="AJ4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AK4" s="11"/>
+      <c r="AK4" s="37"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="42">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="42">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="42">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="42">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="42">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="42">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="42">
         <v>7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="42">
         <v>8</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="42">
         <v>9</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="42">
         <v>10</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="42">
         <v>11</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="42">
         <v>12</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="42">
         <v>13</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="42">
         <v>14</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="42">
         <v>15</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="42">
         <v>16</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="42">
         <v>17</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="42">
         <v>18</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="42">
         <v>19</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="42">
         <v>20</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="42">
         <v>21</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="42">
         <v>22</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="42">
         <v>23</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="42">
         <v>24</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="42">
         <v>25</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="42">
         <v>26</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="42">
         <v>27</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="42">
         <v>28</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="42">
         <v>29</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="42">
         <v>30</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="42">
         <v>31</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="42">
         <v>32</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="42">
         <v>33</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="42">
         <v>34</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="42">
         <v>35</v>
       </c>
       <c r="AK5" s="8"/>
@@ -2019,746 +2028,746 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="35" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="35" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="26" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="27" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21" t="s">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23" t="s">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23" t="s">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23" t="s">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="29" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24" t="s">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25" t="s">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25" t="s">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26" t="s">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24" t="s">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25" t="s">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26" t="s">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24" t="s">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25" t="s">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26" t="s">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24" t="s">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25" t="s">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25" t="s">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26" t="s">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24" t="s">
+      <c r="A99" s="19"/>
+      <c r="B99" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B100" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25" t="s">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26" t="s">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="31" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="31" t="s">
         <v>146</v>
       </c>
     </row>

--- a/assets/downloadables/DCF_Form_4.xlsx
+++ b/assets/downloadables/DCF_Form_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\update template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="158">
   <si>
     <t>FORM 4 - CAPACITY BUILDING FOR BENEFICIARIES</t>
   </si>
@@ -543,12 +543,34 @@
   <si>
     <t>Enter amount utilized for the conduct of activities without comma (ex. 500000).</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+DIP-approved alignment</t>
+  </si>
+  <si>
+    <t>Select one (Conducted before DIP approval, Conducted after DIP approval, N/A)</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Name of Resource Person/Facilitator/BDSP</t>
+  </si>
+  <si>
+    <t>if multiple data add comma (ex. sample text1, sample text2, sample text3)</t>
+  </si>
+  <si>
+    <t>enter firstname middle name last name if multiple data add comma (ex. Fullname1, Fullname2, Fullname3)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +595,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -765,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,6 +852,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -838,9 +870,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,45 +1199,45 @@
       <c r="AK1" s="4"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="37" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="38" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1226,10 +1260,10 @@
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1242,43 +1276,43 @@
       <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="38" t="s">
+      <c r="P3" s="42"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="41" t="s">
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="38" t="s">
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="40" t="s">
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="37"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="38"/>
     </row>
     <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1371,115 +1405,115 @@
       <c r="AJ4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AK4" s="37"/>
+      <c r="AK4" s="38"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="37">
         <v>0</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="37">
         <v>2</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="37">
         <v>3</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="37">
         <v>4</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="37">
         <v>5</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="37">
         <v>6</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="37">
         <v>7</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="37">
         <v>8</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="37">
         <v>9</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="37">
         <v>10</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="37">
         <v>11</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="37">
         <v>12</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="37">
         <v>13</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="37">
         <v>14</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="37">
         <v>15</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="37">
         <v>16</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="37">
         <v>17</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="37">
         <v>18</v>
       </c>
-      <c r="T5" s="42">
+      <c r="T5" s="37">
         <v>19</v>
       </c>
-      <c r="U5" s="42">
+      <c r="U5" s="37">
         <v>20</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="37">
         <v>21</v>
       </c>
-      <c r="W5" s="42">
+      <c r="W5" s="37">
         <v>22</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="37">
         <v>23</v>
       </c>
-      <c r="Y5" s="42">
+      <c r="Y5" s="37">
         <v>24</v>
       </c>
-      <c r="Z5" s="42">
+      <c r="Z5" s="37">
         <v>25</v>
       </c>
-      <c r="AA5" s="42">
+      <c r="AA5" s="37">
         <v>26</v>
       </c>
-      <c r="AB5" s="42">
+      <c r="AB5" s="37">
         <v>27</v>
       </c>
-      <c r="AC5" s="42">
+      <c r="AC5" s="37">
         <v>28</v>
       </c>
-      <c r="AD5" s="42">
+      <c r="AD5" s="37">
         <v>29</v>
       </c>
-      <c r="AE5" s="42">
+      <c r="AE5" s="37">
         <v>30</v>
       </c>
-      <c r="AF5" s="42">
+      <c r="AF5" s="37">
         <v>31</v>
       </c>
-      <c r="AG5" s="42">
+      <c r="AG5" s="37">
         <v>32</v>
       </c>
-      <c r="AH5" s="42">
+      <c r="AH5" s="37">
         <v>33</v>
       </c>
-      <c r="AI5" s="42">
+      <c r="AI5" s="37">
         <v>34</v>
       </c>
-      <c r="AJ5" s="42">
+      <c r="AJ5" s="37">
         <v>35</v>
       </c>
       <c r="AK5" s="8"/>
@@ -2013,18 +2047,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87.42578125" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="70.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+    <col min="6" max="6" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2067,7 +2102,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
         <v>53</v>
@@ -2079,13 +2114,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>152</v>
+      </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
@@ -2119,24 +2158,42 @@
       <c r="AK5" s="36"/>
       <c r="AL5" s="36"/>
     </row>
-    <row r="6" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E6" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E7" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
         <v>57</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/assets/downloadables/DCF_Form_4.xlsx
+++ b/assets/downloadables/DCF_Form_4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\update template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC9170-D0C1-4E76-981F-79738414C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form4" sheetId="1" r:id="rId1"/>
@@ -569,7 +570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,34 +795,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -851,30 +826,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,874 +1152,870 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AK18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" customWidth="1"/>
-    <col min="12" max="12" width="33.5703125" customWidth="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
-    <col min="23" max="28" width="17.28515625" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" customWidth="1"/>
-    <col min="30" max="31" width="21.5703125" customWidth="1"/>
-    <col min="32" max="32" width="21.140625" customWidth="1"/>
-    <col min="33" max="33" width="17.7109375" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" customWidth="1"/>
-    <col min="35" max="35" width="23.42578125" customWidth="1"/>
-    <col min="36" max="36" width="31" customWidth="1"/>
-    <col min="37" max="37" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="29" customWidth="1"/>
+    <col min="2" max="3" width="26.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="26" style="29" customWidth="1"/>
+    <col min="9" max="9" width="19" style="29" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="48.28515625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" style="29" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" style="29" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" style="29" customWidth="1"/>
+    <col min="15" max="15" width="15" style="29" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="29" customWidth="1"/>
+    <col min="18" max="22" width="9.140625" style="29"/>
+    <col min="23" max="28" width="17.28515625" style="29" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" style="29" customWidth="1"/>
+    <col min="30" max="31" width="21.5703125" style="29" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" style="29" customWidth="1"/>
+    <col min="33" max="33" width="17.7109375" style="29" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" style="29" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" style="29" customWidth="1"/>
+    <col min="36" max="36" width="31" style="29" customWidth="1"/>
+    <col min="37" max="37" width="20.85546875" style="29" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AK1" s="4"/>
-    </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="38" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="39" t="s">
+      <c r="N3" s="34"/>
+      <c r="O3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="39" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="42" t="s">
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="39" t="s">
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="41" t="s">
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="38"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="31"/>
     </row>
     <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AG4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AI4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AK4" s="38"/>
+      <c r="AK4" s="31"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="38">
         <v>0</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="38">
         <v>2</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="38">
         <v>3</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="38">
         <v>4</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="38">
         <v>5</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="38">
         <v>6</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="38">
         <v>7</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="38">
         <v>8</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="38">
         <v>9</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="38">
         <v>10</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="38">
         <v>11</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="38">
         <v>12</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="38">
         <v>13</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="38">
         <v>14</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="38">
         <v>15</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="38">
         <v>16</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="38">
         <v>17</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="38">
         <v>18</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="38">
         <v>19</v>
       </c>
-      <c r="U5" s="37">
+      <c r="U5" s="38">
         <v>20</v>
       </c>
-      <c r="V5" s="37">
+      <c r="V5" s="38">
         <v>21</v>
       </c>
-      <c r="W5" s="37">
+      <c r="W5" s="38">
         <v>22</v>
       </c>
-      <c r="X5" s="37">
+      <c r="X5" s="38">
         <v>23</v>
       </c>
-      <c r="Y5" s="37">
+      <c r="Y5" s="38">
         <v>24</v>
       </c>
-      <c r="Z5" s="37">
+      <c r="Z5" s="38">
         <v>25</v>
       </c>
-      <c r="AA5" s="37">
+      <c r="AA5" s="38">
         <v>26</v>
       </c>
-      <c r="AB5" s="37">
+      <c r="AB5" s="38">
         <v>27</v>
       </c>
-      <c r="AC5" s="37">
+      <c r="AC5" s="38">
         <v>28</v>
       </c>
-      <c r="AD5" s="37">
+      <c r="AD5" s="38">
         <v>29</v>
       </c>
-      <c r="AE5" s="37">
+      <c r="AE5" s="38">
         <v>30</v>
       </c>
-      <c r="AF5" s="37">
+      <c r="AF5" s="38">
         <v>31</v>
       </c>
-      <c r="AG5" s="37">
+      <c r="AG5" s="38">
         <v>32</v>
       </c>
-      <c r="AH5" s="37">
+      <c r="AH5" s="38">
         <v>33</v>
       </c>
-      <c r="AI5" s="37">
+      <c r="AI5" s="38">
         <v>34</v>
       </c>
-      <c r="AJ5" s="37">
+      <c r="AJ5" s="38">
         <v>35</v>
       </c>
-      <c r="AK5" s="8"/>
+      <c r="AK5" s="39"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="8"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="39"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="8"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="39"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="8"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="39"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="8"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="39"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="8"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="39"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="8"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="39"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="8"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="39"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="8"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="39"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="8"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="39"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="8"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="39"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="8"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="39"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="8"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="39"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="8"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AK19" s="3"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2046,9 +2035,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -2062,769 +2051,737 @@
     <col min="6" max="6" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-    </row>
-    <row r="6" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16" t="s">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16" t="s">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16" t="s">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17" t="s">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18" t="s">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18" t="s">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16" t="s">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18" t="s">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16" t="s">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17" t="s">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18" t="s">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19" t="s">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20" t="s">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20" t="s">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19" t="s">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20" t="s">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21" t="s">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19" t="s">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20" t="s">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21" t="s">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19" t="s">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20" t="s">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20" t="s">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21" t="s">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19" t="s">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20" t="s">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21" t="s">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="s">
+      <c r="A104" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="21" t="s">
         <v>146</v>
       </c>
     </row>
